--- a/Test/UnitTest/srcTest/mapster.xlsx
+++ b/Test/UnitTest/srcTest/mapster.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>dron</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>asdas</t>
+  </si>
+  <si>
+    <t>rrg</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>wer</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,15 +379,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,24 +416,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>324</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>A1&amp;A2</f>
+        <v>dron1</v>
+      </c>
+      <c r="B10" t="str">
+        <f>B1&amp;B2</f>
+        <v>header44</v>
+      </c>
+      <c r="C10" t="str">
+        <f>C1&amp;C2</f>
+        <v>sdds324</v>
+      </c>
+      <c r="D10" t="str">
+        <f>D1&amp;D2</f>
+        <v>asdrrg</v>
+      </c>
+      <c r="E10" t="str">
+        <f>E1&amp;E2</f>
+        <v>asdg4</v>
+      </c>
+      <c r="F10" t="str">
+        <f>F1&amp;F2</f>
+        <v>asd</v>
+      </c>
+      <c r="G10" t="str">
+        <f>G1&amp;G2</f>
+        <v>asd25</v>
+      </c>
+      <c r="H10" t="str">
+        <f>H1&amp;H2</f>
+        <v>asd</v>
+      </c>
+      <c r="I10" t="str">
+        <f>I1&amp;I2</f>
+        <v>asdaswer</v>
       </c>
     </row>
   </sheetData>

--- a/Test/UnitTest/srcTest/mapster.xlsx
+++ b/Test/UnitTest/srcTest/mapster.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>dron</t>
   </si>
@@ -38,6 +39,21 @@
   </si>
   <si>
     <t>wer</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a7</t>
   </si>
 </sst>
 </file>
@@ -381,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,40 +472,160 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>A1&amp;A2</f>
+        <f t="shared" ref="A10:I10" si="0">A1&amp;A2</f>
         <v>dron1</v>
       </c>
       <c r="B10" t="str">
-        <f>B1&amp;B2</f>
+        <f t="shared" si="0"/>
         <v>header44</v>
       </c>
       <c r="C10" t="str">
-        <f>C1&amp;C2</f>
+        <f t="shared" si="0"/>
         <v>sdds324</v>
       </c>
       <c r="D10" t="str">
-        <f>D1&amp;D2</f>
+        <f t="shared" si="0"/>
         <v>asdrrg</v>
       </c>
       <c r="E10" t="str">
-        <f>E1&amp;E2</f>
+        <f t="shared" si="0"/>
         <v>asdg4</v>
       </c>
       <c r="F10" t="str">
-        <f>F1&amp;F2</f>
+        <f t="shared" si="0"/>
         <v>asd</v>
       </c>
       <c r="G10" t="str">
-        <f>G1&amp;G2</f>
+        <f t="shared" si="0"/>
         <v>asd25</v>
       </c>
       <c r="H10" t="str">
-        <f>H1&amp;H2</f>
+        <f t="shared" si="0"/>
         <v>asd</v>
       </c>
       <c r="I10" t="str">
-        <f>I1&amp;I2</f>
+        <f t="shared" si="0"/>
         <v>asdaswer</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>324</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>324</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>324</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>44</v>
+      </c>
+      <c r="L2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>A1 &amp; A2</f>
+        <v>dron1</v>
+      </c>
+      <c r="B3" t="str">
+        <f>B1 &amp; B2</f>
+        <v>header44</v>
+      </c>
+      <c r="C3" t="str">
+        <f>C1 &amp; C2</f>
+        <v>sdds324</v>
+      </c>
+      <c r="D3" t="str">
+        <f>D1 &amp; D2</f>
+        <v>a11</v>
+      </c>
+      <c r="E3" t="str">
+        <f>E1 &amp; E2</f>
+        <v>a244</v>
+      </c>
+      <c r="F3" t="str">
+        <f>F1 &amp; F2</f>
+        <v>a3324</v>
+      </c>
+      <c r="G3" t="str">
+        <f>G1 &amp; G2</f>
+        <v>a41</v>
+      </c>
+      <c r="H3" t="str">
+        <f>H1 &amp; H2</f>
+        <v>a744</v>
+      </c>
+      <c r="I3" t="str">
+        <f>I1 &amp; I2</f>
+        <v>asdas324</v>
       </c>
     </row>
   </sheetData>
